--- a/Automation-Framework-BookMyShow/ExecutionFiles/HomePage/BookMyShow.xlsx
+++ b/Automation-Framework-BookMyShow/ExecutionFiles/HomePage/BookMyShow.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23906"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Cognizant-Hackathon\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1166" documentId="8_{DD5DBCD6-3B6D-48B3-9B91-A224232793C9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{9C570A03-3937-496F-81E1-8BEFC539EBD0}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16416" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalVariables" sheetId="2" r:id="rId1"/>
@@ -20,7 +14,7 @@
     <sheet name="RTM" sheetId="6" r:id="rId5"/>
     <sheet name="Results" sheetId="4" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -36,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="213">
   <si>
     <t>ProjectName</t>
   </si>
@@ -986,12 +980,40 @@
   <si>
     <t>List of Languages for Movies</t>
   </si>
+  <si>
+    <t>fasiddiqh82@gmail.com</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>Kannada</t>
+  </si>
+  <si>
+    <t>Telugu</t>
+  </si>
+  <si>
+    <t>Hindi</t>
+  </si>
+  <si>
+    <t>English 7D</t>
+  </si>
+  <si>
+    <t>Malayalam</t>
+  </si>
+  <si>
+    <t>Tamil</t>
+  </si>
+  <si>
+    <t>Japanese</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1279,7 +1301,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1312,26 +1334,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1364,23 +1369,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1556,22 +1544,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" customWidth="1"/>
-    <col min="2" max="2" width="24" customWidth="1"/>
-    <col min="3" max="3" width="37.42578125" customWidth="1"/>
-    <col min="4" max="4" width="83.7109375" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="13.33203125" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="24.0" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="37.44140625" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="83.6640625" collapsed="false"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1585,7 +1573,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1599,7 +1587,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1613,7 +1601,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1627,7 +1615,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1641,7 +1629,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1661,32 +1649,32 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:O47"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView topLeftCell="A14" workbookViewId="0">
       <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" style="9" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" style="9" customWidth="1"/>
-    <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="9" customWidth="1"/>
-    <col min="5" max="5" width="49.5703125" style="17" customWidth="1"/>
-    <col min="6" max="6" width="49.5703125" style="10" customWidth="1"/>
-    <col min="7" max="7" width="49.5703125" style="34" customWidth="1"/>
-    <col min="8" max="8" width="45.85546875" style="9" customWidth="1"/>
-    <col min="9" max="9" width="44.28515625" style="34" customWidth="1"/>
-    <col min="10" max="10" width="42.140625" style="34" customWidth="1"/>
-    <col min="11" max="11" width="19.85546875" style="17" customWidth="1"/>
-    <col min="12" max="12" width="24.140625" style="9" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" customWidth="1"/>
-    <col min="14" max="14" width="18.85546875" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="9" width="12.6640625" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" style="9" width="12.88671875" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="16.0" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" style="9" width="14.33203125" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" style="17" width="49.5546875" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" style="10" width="49.5546875" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" style="34" width="49.5546875" collapsed="false"/>
+    <col min="8" max="8" customWidth="true" style="9" width="45.88671875" collapsed="false"/>
+    <col min="9" max="9" customWidth="true" style="34" width="44.33203125" collapsed="false"/>
+    <col min="10" max="10" customWidth="true" style="34" width="42.109375" collapsed="false"/>
+    <col min="11" max="11" customWidth="true" style="17" width="19.88671875" collapsed="false"/>
+    <col min="12" max="12" customWidth="true" style="9" width="24.109375" collapsed="false"/>
+    <col min="13" max="13" customWidth="true" width="14.88671875" collapsed="false"/>
+    <col min="14" max="14" customWidth="true" width="18.88671875" collapsed="false"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
         <v>17</v>
       </c>
@@ -1733,7 +1721,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="75">
+    <row r="2" spans="1:15" ht="72" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>4</v>
       </c>
@@ -1771,7 +1759,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="75">
+    <row r="3" spans="1:15" ht="72" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>4</v>
       </c>
@@ -1810,7 +1798,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="90">
+    <row r="4" spans="1:15" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>4</v>
       </c>
@@ -1821,7 +1809,7 @@
         <v>33</v>
       </c>
       <c r="D4" s="9">
-        <f>D3+1</f>
+        <f t="shared" ref="D4:D16" si="0">D3+1</f>
         <v>20003</v>
       </c>
       <c r="E4" s="13" t="s">
@@ -1849,7 +1837,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="90">
+    <row r="5" spans="1:15" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>4</v>
       </c>
@@ -1860,7 +1848,7 @@
         <v>33</v>
       </c>
       <c r="D5" s="9">
-        <f>D4+1</f>
+        <f t="shared" si="0"/>
         <v>20004</v>
       </c>
       <c r="E5" s="13" t="s">
@@ -1888,7 +1876,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="105">
+    <row r="6" spans="1:15" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>4</v>
       </c>
@@ -1899,7 +1887,7 @@
         <v>56</v>
       </c>
       <c r="D6" s="9">
-        <f>D5+1</f>
+        <f t="shared" si="0"/>
         <v>20005</v>
       </c>
       <c r="E6" s="11" t="s">
@@ -1927,7 +1915,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="105">
+    <row r="7" spans="1:15" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>4</v>
       </c>
@@ -1938,7 +1926,7 @@
         <v>56</v>
       </c>
       <c r="D7" s="9">
-        <f>D6+1</f>
+        <f t="shared" si="0"/>
         <v>20006</v>
       </c>
       <c r="E7" s="11" t="s">
@@ -1966,7 +1954,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="135">
+    <row r="8" spans="1:15" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>4</v>
       </c>
@@ -1977,7 +1965,7 @@
         <v>56</v>
       </c>
       <c r="D8" s="9">
-        <f>D7+1</f>
+        <f t="shared" si="0"/>
         <v>20007</v>
       </c>
       <c r="E8" s="14" t="s">
@@ -2005,7 +1993,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="165">
+    <row r="9" spans="1:15" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>4</v>
       </c>
@@ -2016,7 +2004,7 @@
         <v>56</v>
       </c>
       <c r="D9" s="9">
-        <f>D8+1</f>
+        <f t="shared" si="0"/>
         <v>20008</v>
       </c>
       <c r="E9" s="28" t="s">
@@ -2044,7 +2032,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="165">
+    <row r="10" spans="1:15" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>4</v>
       </c>
@@ -2055,7 +2043,7 @@
         <v>56</v>
       </c>
       <c r="D10" s="9">
-        <f>D9+1</f>
+        <f t="shared" si="0"/>
         <v>20009</v>
       </c>
       <c r="E10" s="28" t="s">
@@ -2083,7 +2071,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="75">
+    <row r="11" spans="1:15" ht="72" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>4</v>
       </c>
@@ -2094,7 +2082,7 @@
         <v>83</v>
       </c>
       <c r="D11" s="9">
-        <f>D10+1</f>
+        <f t="shared" si="0"/>
         <v>20010</v>
       </c>
       <c r="E11" s="16" t="s">
@@ -2122,7 +2110,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="75">
+    <row r="12" spans="1:15" ht="72" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
         <v>4</v>
       </c>
@@ -2133,7 +2121,7 @@
         <v>83</v>
       </c>
       <c r="D12" s="9">
-        <f>D11+1</f>
+        <f t="shared" si="0"/>
         <v>20011</v>
       </c>
       <c r="E12" s="16" t="s">
@@ -2161,7 +2149,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="120">
+    <row r="13" spans="1:15" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
         <v>4</v>
       </c>
@@ -2172,7 +2160,7 @@
         <v>93</v>
       </c>
       <c r="D13" s="9">
-        <f>D12+1</f>
+        <f t="shared" si="0"/>
         <v>20012</v>
       </c>
       <c r="E13" s="16" t="s">
@@ -2200,7 +2188,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="120">
+    <row r="14" spans="1:15" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
         <v>4</v>
       </c>
@@ -2211,7 +2199,7 @@
         <v>93</v>
       </c>
       <c r="D14" s="9">
-        <f>D13+1</f>
+        <f t="shared" si="0"/>
         <v>20013</v>
       </c>
       <c r="E14" s="16" t="s">
@@ -2239,7 +2227,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="135">
+    <row r="15" spans="1:15" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
         <v>4</v>
       </c>
@@ -2250,7 +2238,7 @@
         <v>93</v>
       </c>
       <c r="D15" s="9">
-        <f>D14+1</f>
+        <f t="shared" si="0"/>
         <v>20014</v>
       </c>
       <c r="E15" s="16" t="s">
@@ -2278,7 +2266,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="150">
+    <row r="16" spans="1:15" ht="144" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
         <v>4</v>
       </c>
@@ -2289,7 +2277,7 @@
         <v>93</v>
       </c>
       <c r="D16" s="9">
-        <f>D15+1</f>
+        <f t="shared" si="0"/>
         <v>20015</v>
       </c>
       <c r="E16" s="28" t="s">
@@ -2317,7 +2305,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="90">
+    <row r="17" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
         <v>4</v>
       </c>
@@ -2328,7 +2316,7 @@
         <v>114</v>
       </c>
       <c r="D17" s="9">
-        <f t="shared" ref="D17:D24" si="0">D16+1</f>
+        <f t="shared" ref="D17:D24" si="1">D16+1</f>
         <v>20016</v>
       </c>
       <c r="E17" s="23" t="s">
@@ -2356,7 +2344,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="90">
+    <row r="18" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
         <v>4</v>
       </c>
@@ -2367,7 +2355,7 @@
         <v>114</v>
       </c>
       <c r="D18" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20017</v>
       </c>
       <c r="E18" s="23" t="s">
@@ -2395,7 +2383,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="180">
+    <row r="19" spans="1:12" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
         <v>4</v>
       </c>
@@ -2406,7 +2394,7 @@
         <v>114</v>
       </c>
       <c r="D19" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20018</v>
       </c>
       <c r="E19" s="17" t="s">
@@ -2434,7 +2422,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="180">
+    <row r="20" spans="1:12" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="s">
         <v>4</v>
       </c>
@@ -2445,7 +2433,7 @@
         <v>134</v>
       </c>
       <c r="D20" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20019</v>
       </c>
       <c r="E20" s="17" t="s">
@@ -2473,7 +2461,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="225">
+    <row r="21" spans="1:12" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
         <v>4</v>
       </c>
@@ -2484,7 +2472,7 @@
         <v>134</v>
       </c>
       <c r="D21" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20020</v>
       </c>
       <c r="E21" s="17" t="s">
@@ -2512,7 +2500,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="217.5" customHeight="1">
+    <row r="22" spans="1:12" ht="217.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
         <v>4</v>
       </c>
@@ -2523,7 +2511,7 @@
         <v>143</v>
       </c>
       <c r="D22" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20021</v>
       </c>
       <c r="E22" s="17" t="s">
@@ -2551,7 +2539,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="243.75" customHeight="1">
+    <row r="23" spans="1:12" ht="243.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="9" t="s">
         <v>4</v>
       </c>
@@ -2562,7 +2550,7 @@
         <v>143</v>
       </c>
       <c r="D23" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20022</v>
       </c>
       <c r="E23" s="11" t="s">
@@ -2590,7 +2578,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="215.25" customHeight="1">
+    <row r="24" spans="1:12" ht="215.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
         <v>4</v>
       </c>
@@ -2601,7 +2589,7 @@
         <v>143</v>
       </c>
       <c r="D24" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20023</v>
       </c>
       <c r="E24" s="23" t="s">
@@ -2629,38 +2617,32 @@
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="15">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="E25" s="14"/>
     </row>
-    <row r="28" spans="1:12" ht="15"/>
-    <row r="29" spans="1:12" ht="15"/>
-    <row r="31" spans="1:12" ht="15"/>
-    <row r="32" spans="1:12" ht="15"/>
-    <row r="45" ht="15"/>
-    <row r="47" ht="15"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="13.7109375" customWidth="1"/>
-    <col min="3" max="3" width="19.7109375" style="9" customWidth="1"/>
-    <col min="4" max="4" width="48" customWidth="1"/>
-    <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="6" max="6" width="20.5703125" customWidth="1"/>
+    <col min="1" max="2" customWidth="true" width="13.6640625" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" style="9" width="19.6640625" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="48.0" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="18.0" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" width="20.5546875" collapsed="false"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>158</v>
       </c>
@@ -2680,7 +2662,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -2700,7 +2682,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -2717,10 +2699,10 @@
         <v>162</v>
       </c>
       <c r="F3" s="39" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="15">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -2740,7 +2722,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -2760,40 +2742,34 @@
         <v>165</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15"/>
-    <row r="7" spans="1:6" ht="15"/>
-    <row r="8" spans="1:6" ht="15"/>
-    <row r="9" spans="1:6" ht="15"/>
-    <row r="10" spans="1:6" ht="15"/>
-    <row r="11" spans="1:6" ht="15"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="F3" r:id="rId2" xr:uid="{B63A88D1-547B-4190-AAEC-308483B12C3C}"/>
-    <hyperlink ref="F4" r:id="rId3" xr:uid="{69BD55DC-467E-46B2-B5F9-F48A39FABF63}"/>
+    <hyperlink ref="F2" r:id="rId1"/>
+    <hyperlink ref="F3" r:id="rId2"/>
+    <hyperlink ref="F4" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19FCFAFE-9178-4193-A7EE-411AB66B98F5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="50" style="9" customWidth="1"/>
-    <col min="2" max="2" width="21.85546875" style="9" customWidth="1"/>
-    <col min="3" max="3" width="17.5703125" style="9" customWidth="1"/>
-    <col min="4" max="4" width="47.42578125" style="10" customWidth="1"/>
-    <col min="5" max="5" width="77.140625" style="34" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="9" width="50.0" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" style="9" width="21.88671875" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" style="9" width="17.5546875" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" style="10" width="47.44140625" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" style="34" width="77.109375" collapsed="false"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>166</v>
       </c>
@@ -2810,7 +2786,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
         <v>32</v>
       </c>
@@ -2827,7 +2803,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="45">
+    <row r="3" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="21" t="s">
         <v>32</v>
       </c>
@@ -2844,7 +2820,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="21" t="s">
         <v>82</v>
       </c>
@@ -2861,7 +2837,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="30">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="21" t="s">
         <v>82</v>
       </c>
@@ -2878,7 +2854,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="30" customHeight="1">
+    <row r="6" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="21" t="s">
         <v>113</v>
       </c>
@@ -2895,7 +2871,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="29" t="s">
         <v>113</v>
       </c>
@@ -2912,7 +2888,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="29" t="s">
         <v>113</v>
       </c>
@@ -2935,24 +2911,24 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B115449-5466-4102-8559-DF7A45787FEF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BI4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.140625" style="9" customWidth="1"/>
-    <col min="2" max="2" width="15.5703125" customWidth="1"/>
-    <col min="3" max="3" width="76.7109375" style="10" customWidth="1"/>
-    <col min="4" max="4" width="31.7109375" customWidth="1"/>
-    <col min="5" max="5" width="40.140625" style="9" customWidth="1"/>
-    <col min="6" max="6" width="29.42578125" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="9" width="10.109375" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="15.5546875" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" style="10" width="76.6640625" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="31.6640625" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" style="9" width="40.109375" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" width="29.44140625" collapsed="false"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:61" s="6" customFormat="1" ht="15">
+    <row r="1" spans="1:61" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="35" t="s">
         <v>187</v>
       </c>
@@ -3027,7 +3003,7 @@
       <c r="BH1" s="7"/>
       <c r="BI1" s="7"/>
     </row>
-    <row r="2" spans="1:61" ht="60">
+    <row r="2" spans="1:61" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A2" s="9">
         <v>1</v>
       </c>
@@ -3044,7 +3020,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="3" spans="1:61" ht="33" customHeight="1">
+    <row r="3" spans="1:61" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9">
         <v>2</v>
       </c>
@@ -3061,7 +3037,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="4" spans="1:61" ht="76.5" customHeight="1">
+    <row r="4" spans="1:61" ht="76.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9">
         <v>3</v>
       </c>
@@ -3084,18 +3060,20 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{440D9C28-B100-49DB-9C87-A36C44F99043}">
-  <dimension ref="A1:B25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B33"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.85546875" customWidth="1"/>
-    <col min="2" max="2" width="40" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="27.88671875" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="40.0" collapsed="false"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="38" t="s">
         <v>201</v>
       </c>
@@ -3103,9 +3081,49 @@
         <v>202</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>203</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>212</v>
       </c>
     </row>
   </sheetData>

--- a/Automation-Framework-BookMyShow/ExecutionFiles/HomePage/BookMyShow.xlsx
+++ b/Automation-Framework-BookMyShow/ExecutionFiles/HomePage/BookMyShow.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16416" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16416" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalVariables" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="217">
   <si>
     <t>ProjectName</t>
   </si>
@@ -222,20 +222,6 @@
 5.Sports button is clicked.</t>
   </si>
   <si>
-    <t>To verify if the user is unable to click the sports button on the homepage of bookmyshow.com</t>
-  </si>
-  <si>
-    <t>testIfUserIsUnableToClickOnSportsButton_20004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.Browser is opened
-2.Go to bookmyshow.com website.
-3.city button is selected.
-4.Required city is  selected.
-5.Sports button is  clicked.
-</t>
-  </si>
-  <si>
     <t>S002</t>
   </si>
   <si>
@@ -269,29 +255,7 @@
 6.This Weekend option is selected from the filter section.</t>
   </si>
   <si>
-    <t>To check whether user is unable to click on This Weekend option in the filter section on the sports field.</t>
-  </si>
-  <si>
     <t>user is on Sports page in bookmyshow</t>
-  </si>
-  <si>
-    <t>testIfThisWeekendButtonIsInactive_20006</t>
-  </si>
-  <si>
-    <t>1.Browser should be  opened
-2..Go to bookmyshow.com website.
-3.city button should be selected.
-4.Required city is to selected.
-5.Sports button is to clicked.
-6.This Weekend option should be selected from the filter section.</t>
-  </si>
-  <si>
-    <t>1.Browser is opened
-2.Go to bookmyshow.com website.
-3.city button is selected.
-4.Required city is selected.
-5.Sports button is  clicked.
-6.This Weekend option is selected from the filter section.</t>
   </si>
   <si>
     <t>To check if user is able view upcoming sports events after clicking on This weekened in Filters Section</t>
@@ -304,9 +268,6 @@
 5. select sports button on the homepage.
 6.Click on This Weekend option in the filter section.
 7.Dispaly all the sports activies present in this weekend.</t>
-  </si>
-  <si>
-    <t>verifyIfTheListOfEventsAreDisplayed_20007</t>
   </si>
   <si>
     <t>1.Browser should be  opened
@@ -340,9 +301,6 @@
 8.print all the sports activies with lowest charge.</t>
   </si>
   <si>
-    <t>getTheListOfAllSportsActivity_20008</t>
-  </si>
-  <si>
     <t>1.Browser should be  opened
 2.Go to bookmyshow.com website.
 3.city button should be selected.
@@ -376,9 +334,6 @@
 8.Scroll down  the webpage of sports to check the sports activities present.</t>
   </si>
   <si>
-    <t>testScrollDownFunctionality_20009</t>
-  </si>
-  <si>
     <t>1.Browser should be  opened
 2.Go to bookmyshow.com website.
 3.city button should be selected.
@@ -414,9 +369,6 @@
 4.click on the movies field on the homepage of bookmyshow.</t>
   </si>
   <si>
-    <t>testMoviesLinkButton_20010</t>
-  </si>
-  <si>
     <t>1.selected Browser should be opened.
 2.Go to bookmyshow.com website.
 3.Required city is to selected.
@@ -427,22 +379,6 @@
 2.Go to bookmyshow.com website.
 3.Required city is selected.
 4.Movies field on the homepage is selected.</t>
-  </si>
-  <si>
-    <t>To verify if user is unable to click on the movies from the
-bookmyshow website</t>
-  </si>
-  <si>
-    <t>user should be on the homepage of bookmyshow.com</t>
-  </si>
-  <si>
-    <t>checkIfMoviesButtonIsInactive_20011</t>
-  </si>
-  <si>
-    <t>1.selected Browser is opened.
-2.Go to bookmyshow.com website.
-3. Required city is selected
-4.Movies field on the homepage is not selected.</t>
   </si>
   <si>
     <t>S004</t>
@@ -461,9 +397,6 @@
 3.Select the required city.
 4.click on the movies field on the homepage of bookmyshow.
 5.click on the languages button on the homepage of the movies field.</t>
-  </si>
-  <si>
-    <t>testIfLanguagesButtonIsActive_20012</t>
   </si>
   <si>
     <t>1.selected Browser should be opened.
@@ -481,20 +414,6 @@
 </t>
   </si>
   <si>
-    <t>To verify if user is unable to click on the languages button in the filters Section .</t>
-  </si>
-  <si>
-    <t>checkIfLanguagesButtonIsInactive_20013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.selected Browser is opened.
-2.Go to bookmyshow.com website.
-3.Required city is selected.
-4.Movies field on the homepage is selected.
-5.languages button in the movies field is not selected.
-</t>
-  </si>
-  <si>
     <t>To Check if all the languages of particular city are displayed .</t>
   </si>
   <si>
@@ -504,9 +423,6 @@
 3.Select the required city.
 4.click on the movies field on the homepage of bookmyshow.
 5. All Languages are displayed for the particular city</t>
-  </si>
-  <si>
-    <t>verifyIfLanguagesAreDisplayed_20014</t>
   </si>
   <si>
     <t>1.selected Browser should be opened.
@@ -537,9 +453,6 @@
 6. Display all the languages for movies present in the particular city.</t>
   </si>
   <si>
-    <t>printListOfAllTheLanguages_20015</t>
-  </si>
-  <si>
     <t>1.selected Browser should be opened.
 2.Go to bookmyshow.com website .
 3.Required city is to be selected.
@@ -575,9 +488,6 @@
 </t>
   </si>
   <si>
-    <t>testSignInButton_20016</t>
-  </si>
-  <si>
     <t>1.Browser should be opened.
 2.Go to bookmyshow.com website.
 3. Required city is  selected.
@@ -607,9 +517,6 @@
 3.Select the required city.
 4.click on the sign in button.
 5. "Get Started" Window is Opened</t>
-  </si>
-  <si>
-    <t>verifyIfContinueWith GoogleIsPresent_20017</t>
   </si>
   <si>
     <t>1.Browser should be opened.
@@ -641,9 +548,6 @@
 5. "Get Started" Window is Opened
 6."Continue with Google" is clicked 
 7.A new Window "Sign in with Google" is opened</t>
-  </si>
-  <si>
-    <t>testContinueWithGoogleButton_20018</t>
   </si>
   <si>
     <t>1.Browser should be opened.
@@ -689,9 +593,6 @@
 9. Click on "Next" Button</t>
   </si>
   <si>
-    <t>signInWithValidEmail_20019</t>
-  </si>
-  <si>
     <t>Try to Sign In with valid Email and Incorrect Password</t>
   </si>
   <si>
@@ -706,9 +607,6 @@
 9. Click on "Next" Button
 10.Enter password in Password Input Field
 11.Click on "Next" Button</t>
-  </si>
-  <si>
-    <t>signInWithValidEmailAndInvalidPassword_20020</t>
   </si>
   <si>
     <t>1.Browser should be opened.
@@ -740,9 +638,6 @@
 7. A new Window "Sign in with Google" is opened
 8. Enter a invalid email in Email Input field
 9. Click on "Next" Button</t>
-  </si>
-  <si>
-    <t>signInWithInValidEmail_20021</t>
   </si>
   <si>
     <t xml:space="preserve">1.Browser should be opened.
@@ -787,9 +682,6 @@
 8..Click on "Next" Button</t>
   </si>
   <si>
-    <t>produceErrorWhileSignInWithoutEmail_20022</t>
-  </si>
-  <si>
     <t>1.Browser should be opened.
 2.Go to bookmyshow.com website.
 3.Select the required city.
@@ -818,9 +710,6 @@
 8. Enter a valid email in Email Input field
 9. Click on "Next" Button
 10.Wait for "Welcome "Page to Open .Click on "Next" Button</t>
-  </si>
-  <si>
-    <t>produceErrorWhileSignInWithoutpassword_20023</t>
   </si>
   <si>
     <t>1.Browser should be opened.
@@ -972,12 +861,6 @@
 20019,20020,20021,20022,20023</t>
   </si>
   <si>
-    <t>Name Of The Sport</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
     <t>List of Languages for Movies</t>
   </si>
   <si>
@@ -1006,13 +889,143 @@
   </si>
   <si>
     <t>Japanese</t>
+  </si>
+  <si>
+    <t>Name of the Event</t>
+  </si>
+  <si>
+    <t>Price of the Event</t>
+  </si>
+  <si>
+    <t>CODM Solo Tournament by Big Band Sports</t>
+  </si>
+  <si>
+    <t>Indian Chess League 2020</t>
+  </si>
+  <si>
+    <t>Free Fire Solo And Squad (Bermuda)</t>
+  </si>
+  <si>
+    <t>Johnson Call Of Duty Mobile Tournament</t>
+  </si>
+  <si>
+    <t>Play Mania Sports Lounge</t>
+  </si>
+  <si>
+    <t>Call of Duty Mobile Tournament</t>
+  </si>
+  <si>
+    <t>Online Martial Arts Coaching for Kids at Home</t>
+  </si>
+  <si>
+    <t>verifyIfTheListOfEventsAreDisplayed_20006</t>
+  </si>
+  <si>
+    <t>getTheListOfAllSportsActivity_20007</t>
+  </si>
+  <si>
+    <t>testScrollDownFunctionality_20008</t>
+  </si>
+  <si>
+    <t>testMoviesLinkButton_20009</t>
+  </si>
+  <si>
+    <t>testIfLanguagesButtonIsActive_20011</t>
+  </si>
+  <si>
+    <t>verifyIfLanguagesAreDisplayed_20012</t>
+  </si>
+  <si>
+    <t>printListOfAllTheLanguages_20013</t>
+  </si>
+  <si>
+    <t>testSignInButton_20014</t>
+  </si>
+  <si>
+    <t>verifyIfContinueWith GoogleIsPresent_20015</t>
+  </si>
+  <si>
+    <t>testContinueWithGoogleButton_20016</t>
+  </si>
+  <si>
+    <t>signInWithValidEmail_20017</t>
+  </si>
+  <si>
+    <t>signInWithValidEmailAndInvalidPassword_20018</t>
+  </si>
+  <si>
+    <t>signInWithInValidEmail_20019</t>
+  </si>
+  <si>
+    <t>produceErrorWhileSignInWithoutEmail_20020</t>
+  </si>
+  <si>
+    <t>produceErrorWhileSignInWithoutpassword_20021</t>
+  </si>
+  <si>
+    <t>To verify if the user is able to change the city after navigating to sports page on bookmyshow.com</t>
+  </si>
+  <si>
+    <t>user is on sports of bookmyshow</t>
+  </si>
+  <si>
+    <t>1.Browser should be opened.
+2.Go to bookmyshow.com website.
+3.click on the city option.
+4.select the required city from the city field.
+5. select sports button on the homepage.
+6.Click on the selected city displayed on menu bar.</t>
+  </si>
+  <si>
+    <t>testIfUserIsAbleToChangeTheCity_20004</t>
+  </si>
+  <si>
+    <t>1.Browser should be opened.
+2.Go to bookmyshow.com website.
+3.click on the city option.
+4.select the required city from the city field.
+5. select sports button on the homepage.
+6.Click on the selected city displayed on menu bar.
+7.List of Popular cities is displayed</t>
+  </si>
+  <si>
+    <t>To verify if user is able to clear the language in filter section</t>
+  </si>
+  <si>
+    <t>user should be on the movies page of bookmyshow.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1.Browser should be opened.
+2.Go to bookmyshow.com website.
+3.Select the required city.
+4.click on the movies field on the homepage of bookmyshow.
+5.click on the languages button on the homepage of the movies field.
+6.Select a language from the list of languages displayed.
+7.click on clear button </t>
+  </si>
+  <si>
+    <t>checkIfClearButtonIsActive_20010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1.Browser should be opened.
+2.Go to bookmyshow.com website.
+3.Select the required city.
+4.click on the movies field on the homepage of bookmyshow.
+5.click on the languages button on the homepage of the movies field.
+6.Select a language from the list of languages displayed.
+7.click on clear button 
+8.The selected language is unfiltered .</t>
+  </si>
+  <si>
+    <t>language</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1060,7 +1073,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1103,6 +1116,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1117,7 +1136,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1218,9 +1237,6 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1239,6 +1255,16 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1548,15 +1574,15 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="13.33203125" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" width="24.0" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" width="37.44140625" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" width="83.6640625" collapsed="false"/>
+    <col min="1" max="1" width="13.33203125" customWidth="1"/>
+    <col min="2" max="2" width="24" customWidth="1"/>
+    <col min="3" max="3" width="37.44140625" customWidth="1"/>
+    <col min="4" max="4" width="83.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -1650,28 +1676,28 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:O23"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="9" width="12.6640625" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" style="9" width="12.88671875" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" width="16.0" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" style="9" width="14.33203125" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" style="17" width="49.5546875" collapsed="false"/>
-    <col min="6" max="6" customWidth="true" style="10" width="49.5546875" collapsed="false"/>
-    <col min="7" max="7" customWidth="true" style="34" width="49.5546875" collapsed="false"/>
-    <col min="8" max="8" customWidth="true" style="9" width="45.88671875" collapsed="false"/>
-    <col min="9" max="9" customWidth="true" style="34" width="44.33203125" collapsed="false"/>
-    <col min="10" max="10" customWidth="true" style="34" width="42.109375" collapsed="false"/>
-    <col min="11" max="11" customWidth="true" style="17" width="19.88671875" collapsed="false"/>
-    <col min="12" max="12" customWidth="true" style="9" width="24.109375" collapsed="false"/>
-    <col min="13" max="13" customWidth="true" width="14.88671875" collapsed="false"/>
-    <col min="14" max="14" customWidth="true" width="18.88671875" collapsed="false"/>
+    <col min="1" max="1" width="12.6640625" style="9" customWidth="1"/>
+    <col min="2" max="2" width="12.88671875" style="9" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" style="9" customWidth="1"/>
+    <col min="5" max="5" width="49.5546875" style="17" customWidth="1"/>
+    <col min="6" max="6" width="49.5546875" style="10" customWidth="1"/>
+    <col min="7" max="7" width="49.5546875" style="34" customWidth="1"/>
+    <col min="8" max="8" width="45.88671875" style="9" customWidth="1"/>
+    <col min="9" max="9" width="44.33203125" style="34" customWidth="1"/>
+    <col min="10" max="10" width="42.109375" style="34" customWidth="1"/>
+    <col min="11" max="11" width="19.88671875" style="17" customWidth="1"/>
+    <col min="12" max="12" width="24.109375" style="9" customWidth="1"/>
+    <col min="13" max="13" width="14.88671875" customWidth="1"/>
+    <col min="14" max="14" width="18.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
@@ -1693,16 +1719,16 @@
       <c r="F1" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="41" t="s">
+      <c r="G1" s="40" t="s">
         <v>23</v>
       </c>
       <c r="H1" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="44" t="s">
+      <c r="I1" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="J1" s="44" t="s">
+      <c r="J1" s="43" t="s">
         <v>26</v>
       </c>
       <c r="K1" s="12" t="s">
@@ -1809,7 +1835,7 @@
         <v>33</v>
       </c>
       <c r="D4" s="9">
-        <f t="shared" ref="D4:D16" si="0">D3+1</f>
+        <f t="shared" ref="D4:D14" si="0">D3+1</f>
         <v>20003</v>
       </c>
       <c r="E4" s="13" t="s">
@@ -1837,7 +1863,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>4</v>
       </c>
@@ -1851,23 +1877,23 @@
         <f t="shared" si="0"/>
         <v>20004</v>
       </c>
-      <c r="E5" s="13" t="s">
-        <v>53</v>
+      <c r="E5" s="45" t="s">
+        <v>206</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>48</v>
+        <v>207</v>
       </c>
       <c r="G5" s="33" t="s">
-        <v>49</v>
+        <v>208</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>54</v>
+        <v>209</v>
       </c>
       <c r="I5" s="33" t="s">
-        <v>51</v>
+        <v>210</v>
       </c>
       <c r="J5" s="33" t="s">
-        <v>55</v>
+        <v>210</v>
       </c>
       <c r="K5" s="16" t="s">
         <v>40</v>
@@ -1884,29 +1910,29 @@
         <v>32</v>
       </c>
       <c r="C6" s="31" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D6" s="9">
         <f t="shared" si="0"/>
         <v>20005</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F6" s="20" t="s">
         <v>48</v>
       </c>
       <c r="G6" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="I6" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="J6" s="33" t="s">
         <v>58</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="I6" s="33" t="s">
-        <v>60</v>
-      </c>
-      <c r="J6" s="33" t="s">
-        <v>61</v>
       </c>
       <c r="K6" s="16" t="s">
         <v>40</v>
@@ -1915,7 +1941,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>4</v>
       </c>
@@ -1923,29 +1949,29 @@
         <v>32</v>
       </c>
       <c r="C7" s="31" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D7" s="9">
         <f t="shared" si="0"/>
         <v>20006</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="F7" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="G7" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="I7" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="F7" s="26" t="s">
+      <c r="J7" s="33" t="s">
         <v>63</v>
-      </c>
-      <c r="G7" s="33" t="s">
-        <v>58</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="I7" s="33" t="s">
-        <v>65</v>
-      </c>
-      <c r="J7" s="33" t="s">
-        <v>66</v>
       </c>
       <c r="K7" s="16" t="s">
         <v>40</v>
@@ -1954,7 +1980,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>4</v>
       </c>
@@ -1962,29 +1988,29 @@
         <v>32</v>
       </c>
       <c r="C8" s="31" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D8" s="9">
         <f t="shared" si="0"/>
         <v>20007</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="E8" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="F8" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="G8" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="I8" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="J8" s="33" t="s">
         <v>67</v>
-      </c>
-      <c r="F8" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="G8" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="I8" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="J8" s="33" t="s">
-        <v>71</v>
       </c>
       <c r="K8" s="16" t="s">
         <v>40</v>
@@ -2001,29 +2027,29 @@
         <v>32</v>
       </c>
       <c r="C9" s="31" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D9" s="9">
         <f t="shared" si="0"/>
         <v>20008</v>
       </c>
       <c r="E9" s="28" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F9" s="26" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="G9" s="33" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>74</v>
+        <v>193</v>
       </c>
       <c r="I9" s="33" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="J9" s="33" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="K9" s="16" t="s">
         <v>40</v>
@@ -2032,37 +2058,37 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" ht="72" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="C10" s="31" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="D10" s="9">
         <f t="shared" si="0"/>
         <v>20009</v>
       </c>
-      <c r="E10" s="28" t="s">
+      <c r="E10" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="F10" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="G10" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="I10" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="J10" s="33" t="s">
         <v>77</v>
-      </c>
-      <c r="F10" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="G10" s="33" t="s">
-        <v>78</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="I10" s="33" t="s">
-        <v>80</v>
-      </c>
-      <c r="J10" s="33" t="s">
-        <v>81</v>
       </c>
       <c r="K10" s="16" t="s">
         <v>40</v>
@@ -2071,37 +2097,37 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="72" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="C11" s="31" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="D11" s="9">
         <f t="shared" si="0"/>
         <v>20010</v>
       </c>
-      <c r="E11" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="F11" s="26" t="s">
-        <v>48</v>
+      <c r="E11" s="45" t="s">
+        <v>211</v>
+      </c>
+      <c r="F11" s="46" t="s">
+        <v>212</v>
       </c>
       <c r="G11" s="33" t="s">
-        <v>85</v>
+        <v>213</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>86</v>
+        <v>214</v>
       </c>
       <c r="I11" s="33" t="s">
-        <v>87</v>
+        <v>215</v>
       </c>
       <c r="J11" s="33" t="s">
-        <v>88</v>
+        <v>215</v>
       </c>
       <c r="K11" s="16" t="s">
         <v>40</v>
@@ -2110,37 +2136,37 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="72" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="C12" s="31" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D12" s="9">
         <f t="shared" si="0"/>
         <v>20011</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="F12" s="26" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G12" s="33" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>91</v>
+        <v>195</v>
       </c>
       <c r="I12" s="33" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="J12" s="33" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="K12" s="16" t="s">
         <v>40</v>
@@ -2154,32 +2180,32 @@
         <v>4</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="C13" s="31" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="D13" s="9">
         <f t="shared" si="0"/>
         <v>20012</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="F13" s="26" t="s">
-        <v>95</v>
-      </c>
-      <c r="G13" s="33" t="s">
-        <v>96</v>
+        <v>80</v>
+      </c>
+      <c r="G13" s="41" t="s">
+        <v>85</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>97</v>
+        <v>196</v>
       </c>
       <c r="I13" s="33" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="J13" s="33" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="K13" s="16" t="s">
         <v>40</v>
@@ -2188,37 +2214,37 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" ht="144" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="C14" s="31" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="D14" s="9">
         <f t="shared" si="0"/>
         <v>20013</v>
       </c>
-      <c r="E14" s="16" t="s">
-        <v>100</v>
+      <c r="E14" s="28" t="s">
+        <v>88</v>
       </c>
       <c r="F14" s="26" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="G14" s="33" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>101</v>
+        <v>197</v>
       </c>
       <c r="I14" s="33" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="J14" s="33" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="K14" s="16" t="s">
         <v>40</v>
@@ -2227,439 +2253,362 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="C15" s="31" t="s">
         <v>93</v>
       </c>
       <c r="D15" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D15:D22" si="1">D14+1</f>
         <v>20014</v>
       </c>
-      <c r="E15" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="F15" s="26" t="s">
+      <c r="E15" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="F15" s="20" t="s">
         <v>95</v>
       </c>
       <c r="G15" s="42" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="I15" s="33" t="s">
-        <v>106</v>
-      </c>
-      <c r="J15" s="33" t="s">
-        <v>107</v>
+        <v>198</v>
+      </c>
+      <c r="I15" s="42" t="s">
+        <v>97</v>
+      </c>
+      <c r="J15" s="42" t="s">
+        <v>98</v>
       </c>
       <c r="K15" s="16" t="s">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="L15" s="9" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="144" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="C16" s="31" t="s">
         <v>93</v>
       </c>
       <c r="D16" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20015</v>
       </c>
-      <c r="E16" s="28" t="s">
-        <v>108</v>
+      <c r="E16" s="23" t="s">
+        <v>100</v>
       </c>
       <c r="F16" s="26" t="s">
-        <v>95</v>
-      </c>
-      <c r="G16" s="33" t="s">
-        <v>109</v>
+        <v>101</v>
+      </c>
+      <c r="G16" s="42" t="s">
+        <v>102</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="I16" s="33" t="s">
-        <v>111</v>
-      </c>
-      <c r="J16" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="K16" s="16" t="s">
-        <v>40</v>
+        <v>199</v>
+      </c>
+      <c r="I16" s="42" t="s">
+        <v>103</v>
+      </c>
+      <c r="J16" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="K16" s="25" t="s">
+        <v>99</v>
       </c>
       <c r="L16" s="9" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="C17" s="31" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="D17" s="9">
-        <f t="shared" ref="D17:D24" si="1">D16+1</f>
+        <f t="shared" si="1"/>
         <v>20016</v>
       </c>
-      <c r="E17" s="23" t="s">
-        <v>115</v>
-      </c>
-      <c r="F17" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="G17" s="43" t="s">
-        <v>117</v>
+      <c r="E17" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="F17" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="G17" s="42" t="s">
+        <v>107</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="I17" s="43" t="s">
-        <v>119</v>
-      </c>
-      <c r="J17" s="43" t="s">
-        <v>120</v>
-      </c>
-      <c r="K17" s="16" t="s">
-        <v>121</v>
+        <v>200</v>
+      </c>
+      <c r="I17" s="42" t="s">
+        <v>108</v>
+      </c>
+      <c r="J17" s="42" t="s">
+        <v>109</v>
+      </c>
+      <c r="K17" s="25" t="s">
+        <v>99</v>
       </c>
       <c r="L17" s="9" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="C18" s="31" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D18" s="9">
         <f t="shared" si="1"/>
         <v>20017</v>
       </c>
-      <c r="E18" s="23" t="s">
-        <v>122</v>
+      <c r="E18" s="17" t="s">
+        <v>111</v>
       </c>
       <c r="F18" s="26" t="s">
-        <v>123</v>
-      </c>
-      <c r="G18" s="43" t="s">
-        <v>124</v>
+        <v>112</v>
+      </c>
+      <c r="G18" s="42" t="s">
+        <v>113</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="I18" s="43" t="s">
-        <v>126</v>
-      </c>
-      <c r="J18" s="43" t="s">
-        <v>127</v>
+        <v>201</v>
+      </c>
+      <c r="I18" s="42" t="s">
+        <v>108</v>
+      </c>
+      <c r="J18" s="42" t="s">
+        <v>108</v>
       </c>
       <c r="K18" s="25" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
       <c r="L18" s="9" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="C19" s="31" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D19" s="9">
         <f t="shared" si="1"/>
         <v>20018</v>
       </c>
       <c r="E19" s="17" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="F19" s="26" t="s">
-        <v>129</v>
-      </c>
-      <c r="G19" s="43" t="s">
-        <v>130</v>
+        <v>112</v>
+      </c>
+      <c r="G19" s="42" t="s">
+        <v>115</v>
       </c>
       <c r="H19" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="I19" s="43" t="s">
-        <v>132</v>
-      </c>
-      <c r="J19" s="43" t="s">
-        <v>133</v>
+        <v>202</v>
+      </c>
+      <c r="I19" s="42" t="s">
+        <v>116</v>
+      </c>
+      <c r="J19" s="42" t="s">
+        <v>116</v>
       </c>
       <c r="K19" s="25" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
       <c r="L19" s="9" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" ht="217.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="C20" s="31" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="D20" s="9">
         <f t="shared" si="1"/>
         <v>20019</v>
       </c>
       <c r="E20" s="17" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="F20" s="26" t="s">
-        <v>136</v>
-      </c>
-      <c r="G20" s="43" t="s">
-        <v>137</v>
+        <v>112</v>
+      </c>
+      <c r="G20" s="42" t="s">
+        <v>119</v>
       </c>
       <c r="H20" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="I20" s="43" t="s">
-        <v>132</v>
-      </c>
-      <c r="J20" s="43" t="s">
-        <v>132</v>
+        <v>203</v>
+      </c>
+      <c r="I20" s="42" t="s">
+        <v>120</v>
+      </c>
+      <c r="J20" s="42" t="s">
+        <v>121</v>
       </c>
       <c r="K20" s="25" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
       <c r="L20" s="9" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" ht="243.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="C21" s="31" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="D21" s="9">
         <f t="shared" si="1"/>
         <v>20020</v>
       </c>
-      <c r="E21" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="F21" s="26" t="s">
-        <v>136</v>
-      </c>
-      <c r="G21" s="43" t="s">
-        <v>140</v>
+      <c r="E21" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="F21" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="G21" s="42" t="s">
+        <v>123</v>
       </c>
       <c r="H21" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="I21" s="43" t="s">
-        <v>142</v>
-      </c>
-      <c r="J21" s="43" t="s">
-        <v>142</v>
+        <v>204</v>
+      </c>
+      <c r="I21" s="42" t="s">
+        <v>124</v>
+      </c>
+      <c r="J21" s="42" t="s">
+        <v>124</v>
       </c>
       <c r="K21" s="25" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
       <c r="L21" s="9" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="217.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" ht="215.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="C22" s="31" t="s">
-        <v>143</v>
+        <v>117</v>
       </c>
       <c r="D22" s="9">
         <f t="shared" si="1"/>
         <v>20021</v>
       </c>
-      <c r="E22" s="17" t="s">
-        <v>144</v>
+      <c r="E22" s="23" t="s">
+        <v>125</v>
       </c>
       <c r="F22" s="26" t="s">
-        <v>136</v>
-      </c>
-      <c r="G22" s="43" t="s">
-        <v>145</v>
+        <v>126</v>
+      </c>
+      <c r="G22" s="42" t="s">
+        <v>127</v>
       </c>
       <c r="H22" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="I22" s="43" t="s">
-        <v>147</v>
-      </c>
-      <c r="J22" s="43" t="s">
-        <v>148</v>
+        <v>205</v>
+      </c>
+      <c r="I22" s="42" t="s">
+        <v>128</v>
+      </c>
+      <c r="J22" s="42" t="s">
+        <v>128</v>
       </c>
       <c r="K22" s="25" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
       <c r="L22" s="9" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="243.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="C23" s="31" t="s">
-        <v>143</v>
-      </c>
-      <c r="D23" s="9">
-        <f t="shared" si="1"/>
-        <v>20022</v>
-      </c>
-      <c r="E23" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="F23" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="G23" s="43" t="s">
-        <v>150</v>
-      </c>
-      <c r="H23" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="I23" s="43" t="s">
-        <v>152</v>
-      </c>
-      <c r="J23" s="43" t="s">
-        <v>152</v>
-      </c>
-      <c r="K23" s="25" t="s">
-        <v>121</v>
-      </c>
-      <c r="L23" s="9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" ht="215.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="C24" s="31" t="s">
-        <v>143</v>
-      </c>
-      <c r="D24" s="9">
-        <f t="shared" si="1"/>
-        <v>20023</v>
-      </c>
-      <c r="E24" s="23" t="s">
-        <v>153</v>
-      </c>
-      <c r="F24" s="26" t="s">
-        <v>154</v>
-      </c>
-      <c r="G24" s="43" t="s">
-        <v>155</v>
-      </c>
-      <c r="H24" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="I24" s="43" t="s">
-        <v>157</v>
-      </c>
-      <c r="J24" s="43" t="s">
-        <v>157</v>
-      </c>
-      <c r="K24" s="25" t="s">
-        <v>121</v>
-      </c>
-      <c r="L24" s="9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="E25" s="14"/>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="E23" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" customWidth="true" width="13.6640625" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" style="9" width="19.6640625" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" width="48.0" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" width="18.0" collapsed="false"/>
-    <col min="6" max="6" customWidth="true" width="20.5546875" collapsed="false"/>
+    <col min="1" max="2" width="13.6640625" customWidth="1"/>
+    <col min="3" max="3" width="19.6640625" style="9" customWidth="1"/>
+    <col min="4" max="4" width="48" customWidth="1"/>
+    <col min="5" max="5" width="18" customWidth="1"/>
+    <col min="6" max="6" width="20.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>158</v>
+        <v>129</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="40" t="s">
+      <c r="C1" s="39" t="s">
         <v>20</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>159</v>
+        <v>130</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>160</v>
+        <v>131</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>161</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -2667,19 +2616,19 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>113</v>
+        <v>72</v>
       </c>
       <c r="C2" s="9">
-        <v>20019</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="E2" t="s">
-        <v>162</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>163</v>
+        <v>20010</v>
+      </c>
+      <c r="D2" s="48" t="s">
+        <v>214</v>
+      </c>
+      <c r="E2" s="47" t="s">
+        <v>216</v>
+      </c>
+      <c r="F2" s="47" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -2687,19 +2636,19 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="C3" s="9">
-        <v>20021</v>
+        <v>20017</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>146</v>
+        <v>201</v>
       </c>
       <c r="E3" t="s">
-        <v>162</v>
-      </c>
-      <c r="F3" s="39" t="s">
-        <v>204</v>
+        <v>133</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -2707,19 +2656,19 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="C4" s="9">
-        <v>20020</v>
+        <v>20019</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>141</v>
+        <v>203</v>
       </c>
       <c r="E4" t="s">
-        <v>162</v>
-      </c>
-      <c r="F4" s="39" t="s">
-        <v>163</v>
+        <v>133</v>
+      </c>
+      <c r="F4" s="38" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -2727,26 +2676,46 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="C5" s="9">
-        <v>20020</v>
+        <v>20018</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>141</v>
+        <v>202</v>
       </c>
       <c r="E5" t="s">
-        <v>164</v>
-      </c>
-      <c r="F5" t="s">
-        <v>165</v>
+        <v>133</v>
+      </c>
+      <c r="F5" s="38" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C6" s="9">
+        <v>20018</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="E6" t="s">
+        <v>135</v>
+      </c>
+      <c r="F6" t="s">
+        <v>136</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1"/>
-    <hyperlink ref="F3" r:id="rId2"/>
-    <hyperlink ref="F4" r:id="rId3"/>
+    <hyperlink ref="F3" r:id="rId1"/>
+    <hyperlink ref="F4" r:id="rId2"/>
+    <hyperlink ref="F5" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2762,28 +2731,28 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="9" width="50.0" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" style="9" width="21.88671875" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" style="9" width="17.5546875" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" style="10" width="47.44140625" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" style="34" width="77.109375" collapsed="false"/>
+    <col min="1" max="1" width="50" style="9" customWidth="1"/>
+    <col min="2" max="2" width="21.88671875" style="9" customWidth="1"/>
+    <col min="3" max="3" width="17.5546875" style="9" customWidth="1"/>
+    <col min="4" max="4" width="47.44140625" style="10" customWidth="1"/>
+    <col min="5" max="5" width="77.109375" style="34" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
-        <v>166</v>
+        <v>137</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>167</v>
+        <v>138</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>168</v>
+        <v>139</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>169</v>
+        <v>140</v>
       </c>
       <c r="E1" s="32" t="s">
-        <v>170</v>
+        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -2791,16 +2760,16 @@
         <v>32</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>171</v>
+        <v>142</v>
       </c>
       <c r="C2" s="30" t="s">
         <v>33</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>172</v>
+        <v>143</v>
       </c>
       <c r="E2" s="33" t="s">
-        <v>173</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -2808,101 +2777,101 @@
         <v>32</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>171</v>
+        <v>142</v>
       </c>
       <c r="C3" s="30" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>174</v>
+        <v>145</v>
       </c>
       <c r="E3" s="33" t="s">
-        <v>175</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="21" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="B4" s="30" t="s">
-        <v>176</v>
+        <v>147</v>
       </c>
       <c r="C4" s="30" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>177</v>
+        <v>148</v>
       </c>
       <c r="E4" s="33" t="s">
-        <v>173</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="21" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="B5" s="31" t="s">
-        <v>176</v>
+        <v>147</v>
       </c>
       <c r="C5" s="30" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>178</v>
+        <v>149</v>
       </c>
       <c r="E5" s="33" t="s">
-        <v>179</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="21" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="B6" s="30" t="s">
-        <v>180</v>
+        <v>151</v>
       </c>
       <c r="C6" s="30" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>181</v>
+        <v>152</v>
       </c>
       <c r="E6" s="33" t="s">
-        <v>182</v>
+        <v>153</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="29" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="B7" s="31" t="s">
-        <v>180</v>
+        <v>151</v>
       </c>
       <c r="C7" s="31" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>183</v>
+        <v>154</v>
       </c>
       <c r="E7" s="34" t="s">
-        <v>184</v>
+        <v>155</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="29" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="B8" s="31" t="s">
-        <v>180</v>
+        <v>151</v>
       </c>
       <c r="C8" s="31" t="s">
-        <v>143</v>
+        <v>117</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>185</v>
+        <v>156</v>
       </c>
       <c r="E8" s="34" t="s">
-        <v>186</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -2920,32 +2889,32 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="9" width="10.109375" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" width="15.5546875" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" style="10" width="76.6640625" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" width="31.6640625" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" style="9" width="40.109375" collapsed="false"/>
-    <col min="6" max="6" customWidth="true" width="29.44140625" collapsed="false"/>
+    <col min="1" max="1" width="10.109375" style="9" customWidth="1"/>
+    <col min="2" max="2" width="15.5546875" customWidth="1"/>
+    <col min="3" max="3" width="76.6640625" style="10" customWidth="1"/>
+    <col min="4" max="4" width="31.6640625" customWidth="1"/>
+    <col min="5" max="5" width="40.109375" style="9" customWidth="1"/>
+    <col min="6" max="6" width="29.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:61" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="35" t="s">
-        <v>187</v>
+        <v>158</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>167</v>
+        <v>138</v>
       </c>
       <c r="C1" s="36" t="s">
-        <v>188</v>
+        <v>159</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>189</v>
+        <v>160</v>
       </c>
       <c r="E1" s="35" t="s">
-        <v>190</v>
+        <v>161</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>191</v>
+        <v>162</v>
       </c>
       <c r="G1" s="7"/>
       <c r="H1" s="7"/>
@@ -3008,16 +2977,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>171</v>
+        <v>142</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>192</v>
+        <v>163</v>
       </c>
       <c r="D2" s="31" t="s">
-        <v>193</v>
+        <v>164</v>
       </c>
       <c r="E2" s="37" t="s">
-        <v>194</v>
+        <v>165</v>
       </c>
     </row>
     <row r="3" spans="1:61" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -3025,16 +2994,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="31" t="s">
-        <v>176</v>
+        <v>147</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>195</v>
+        <v>166</v>
       </c>
       <c r="D3" s="31" t="s">
-        <v>196</v>
-      </c>
-      <c r="E3" s="45" t="s">
-        <v>197</v>
+        <v>167</v>
+      </c>
+      <c r="E3" s="44" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="4" spans="1:61" ht="76.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3042,16 +3011,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="31" t="s">
-        <v>180</v>
+        <v>151</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>198</v>
+        <v>169</v>
       </c>
       <c r="D4" s="31" t="s">
-        <v>199</v>
+        <v>170</v>
       </c>
       <c r="E4" s="37" t="s">
-        <v>200</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -3063,67 +3032,124 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="27.88671875" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" width="40.0" collapsed="false"/>
+    <col min="1" max="1" width="41.88671875" customWidth="1"/>
+    <col min="2" max="2" width="40" customWidth="1"/>
+    <col min="3" max="3" width="19.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="38" t="s">
-        <v>201</v>
-      </c>
-      <c r="B1" s="38" t="s">
-        <v>202</v>
+      <c r="A1" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>188</v>
+      </c>
+      <c r="B6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>189</v>
+      </c>
+      <c r="B7">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>190</v>
+      </c>
+      <c r="B8">
+        <v>1180</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="26">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="27">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="28">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="29">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="30">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="31">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="32">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="33">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>212</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>

--- a/Automation-Framework-BookMyShow/ExecutionFiles/HomePage/BookMyShow.xlsx
+++ b/Automation-Framework-BookMyShow/ExecutionFiles/HomePage/BookMyShow.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16416" activeTab="1"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="23256" windowHeight="13176" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalVariables" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="218">
   <si>
     <t>ProjectName</t>
   </si>
@@ -741,9 +741,6 @@
     <t>Email</t>
   </si>
   <si>
-    <t>abc@gmail.com</t>
-  </si>
-  <si>
     <t>password</t>
   </si>
   <si>
@@ -898,9 +895,6 @@
   </si>
   <si>
     <t>CODM Solo Tournament by Big Band Sports</t>
-  </si>
-  <si>
-    <t>Indian Chess League 2020</t>
   </si>
   <si>
     <t>Free Fire Solo And Squad (Bermuda)</t>
@@ -1020,6 +1014,15 @@
   </si>
   <si>
     <t>language</t>
+  </si>
+  <si>
+    <t>Indian Chess League 2021</t>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
+    <t>fasiddiqh72@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -1579,10 +1582,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" customWidth="1"/>
-    <col min="2" max="2" width="24" customWidth="1"/>
-    <col min="3" max="3" width="37.44140625" customWidth="1"/>
-    <col min="4" max="4" width="83.6640625" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="37.44140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="83.6640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -1678,26 +1681,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" style="9" customWidth="1"/>
-    <col min="2" max="2" width="12.88671875" style="9" customWidth="1"/>
-    <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" style="9" customWidth="1"/>
-    <col min="5" max="5" width="49.5546875" style="17" customWidth="1"/>
-    <col min="6" max="6" width="49.5546875" style="10" customWidth="1"/>
-    <col min="7" max="7" width="49.5546875" style="34" customWidth="1"/>
-    <col min="8" max="8" width="45.88671875" style="9" customWidth="1"/>
-    <col min="9" max="9" width="44.33203125" style="34" customWidth="1"/>
-    <col min="10" max="10" width="42.109375" style="34" customWidth="1"/>
-    <col min="11" max="11" width="19.88671875" style="17" customWidth="1"/>
-    <col min="12" max="12" width="24.109375" style="9" customWidth="1"/>
-    <col min="13" max="13" width="14.88671875" customWidth="1"/>
-    <col min="14" max="14" width="18.88671875" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" style="9" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12.88671875" style="9" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.33203125" style="9" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="49.5546875" style="17" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="49.5546875" style="10" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="49.5546875" style="34" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="45.88671875" style="9" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="44.33203125" style="34" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="42.109375" style="34" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="19.88671875" style="17" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="24.109375" style="9" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="14.88671875" style="9" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="18.88671875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
@@ -1737,7 +1740,7 @@
       <c r="L1" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="18" t="s">
         <v>29</v>
       </c>
       <c r="N1" s="3" t="s">
@@ -1784,6 +1787,9 @@
       <c r="L2" s="9" t="s">
         <v>41</v>
       </c>
+      <c r="M2" s="9" t="s">
+        <v>216</v>
+      </c>
     </row>
     <row r="3" spans="1:15" ht="72" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
@@ -1823,6 +1829,9 @@
       <c r="L3" s="9" t="s">
         <v>41</v>
       </c>
+      <c r="M3" s="9" t="s">
+        <v>216</v>
+      </c>
     </row>
     <row r="4" spans="1:15" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
@@ -1862,6 +1871,9 @@
       <c r="L4" s="9" t="s">
         <v>41</v>
       </c>
+      <c r="M4" s="9" t="s">
+        <v>216</v>
+      </c>
     </row>
     <row r="5" spans="1:15" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
@@ -1878,28 +1890,31 @@
         <v>20004</v>
       </c>
       <c r="E5" s="45" t="s">
+        <v>204</v>
+      </c>
+      <c r="F5" s="20" t="s">
+        <v>205</v>
+      </c>
+      <c r="G5" s="33" t="s">
         <v>206</v>
       </c>
-      <c r="F5" s="20" t="s">
+      <c r="H5" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="G5" s="33" t="s">
+      <c r="I5" s="33" t="s">
         <v>208</v>
       </c>
-      <c r="H5" s="9" t="s">
-        <v>209</v>
-      </c>
-      <c r="I5" s="33" t="s">
-        <v>210</v>
-      </c>
       <c r="J5" s="33" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="K5" s="16" t="s">
         <v>40</v>
       </c>
       <c r="L5" s="9" t="s">
         <v>41</v>
+      </c>
+      <c r="M5" s="9" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="100.8" x14ac:dyDescent="0.3">
@@ -1940,6 +1955,9 @@
       <c r="L6" s="9" t="s">
         <v>41</v>
       </c>
+      <c r="M6" s="9" t="s">
+        <v>216</v>
+      </c>
     </row>
     <row r="7" spans="1:15" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
@@ -1965,7 +1983,7 @@
         <v>61</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="I7" s="33" t="s">
         <v>62</v>
@@ -1978,6 +1996,9 @@
       </c>
       <c r="L7" s="9" t="s">
         <v>41</v>
+      </c>
+      <c r="M7" s="9" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="158.4" x14ac:dyDescent="0.3">
@@ -2004,7 +2025,7 @@
         <v>65</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="I8" s="33" t="s">
         <v>66</v>
@@ -2017,6 +2038,9 @@
       </c>
       <c r="L8" s="9" t="s">
         <v>41</v>
+      </c>
+      <c r="M8" s="9" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="158.4" x14ac:dyDescent="0.3">
@@ -2043,7 +2067,7 @@
         <v>69</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="I9" s="33" t="s">
         <v>70</v>
@@ -2056,6 +2080,9 @@
       </c>
       <c r="L9" s="9" t="s">
         <v>41</v>
+      </c>
+      <c r="M9" s="9" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="72" x14ac:dyDescent="0.3">
@@ -2082,7 +2109,7 @@
         <v>75</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="I10" s="33" t="s">
         <v>76</v>
@@ -2095,6 +2122,9 @@
       </c>
       <c r="L10" s="9" t="s">
         <v>41</v>
+      </c>
+      <c r="M10" s="9" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="172.8" x14ac:dyDescent="0.3">
@@ -2112,28 +2142,31 @@
         <v>20010</v>
       </c>
       <c r="E11" s="45" t="s">
+        <v>209</v>
+      </c>
+      <c r="F11" s="46" t="s">
+        <v>210</v>
+      </c>
+      <c r="G11" s="33" t="s">
         <v>211</v>
       </c>
-      <c r="F11" s="46" t="s">
+      <c r="H11" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="G11" s="33" t="s">
+      <c r="I11" s="33" t="s">
         <v>213</v>
       </c>
-      <c r="H11" s="9" t="s">
-        <v>214</v>
-      </c>
-      <c r="I11" s="33" t="s">
-        <v>215</v>
-      </c>
       <c r="J11" s="33" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K11" s="16" t="s">
         <v>40</v>
       </c>
       <c r="L11" s="9" t="s">
         <v>41</v>
+      </c>
+      <c r="M11" s="9" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="115.2" x14ac:dyDescent="0.3">
@@ -2160,7 +2193,7 @@
         <v>81</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="I12" s="33" t="s">
         <v>82</v>
@@ -2173,6 +2206,9 @@
       </c>
       <c r="L12" s="9" t="s">
         <v>41</v>
+      </c>
+      <c r="M12" s="9" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="115.2" x14ac:dyDescent="0.3">
@@ -2199,7 +2235,7 @@
         <v>85</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="I13" s="33" t="s">
         <v>86</v>
@@ -2212,6 +2248,9 @@
       </c>
       <c r="L13" s="9" t="s">
         <v>41</v>
+      </c>
+      <c r="M13" s="9" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="144" x14ac:dyDescent="0.3">
@@ -2238,7 +2277,7 @@
         <v>89</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="I14" s="33" t="s">
         <v>90</v>
@@ -2251,6 +2290,9 @@
       </c>
       <c r="L14" s="9" t="s">
         <v>41</v>
+      </c>
+      <c r="M14" s="9" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="86.4" x14ac:dyDescent="0.3">
@@ -2277,7 +2319,7 @@
         <v>96</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="I15" s="42" t="s">
         <v>97</v>
@@ -2290,6 +2332,9 @@
       </c>
       <c r="L15" s="9" t="s">
         <v>41</v>
+      </c>
+      <c r="M15" s="9" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="86.4" x14ac:dyDescent="0.3">
@@ -2316,7 +2361,7 @@
         <v>102</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="I16" s="42" t="s">
         <v>103</v>
@@ -2330,8 +2375,11 @@
       <c r="L16" s="9" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="M16" s="9" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
         <v>4</v>
       </c>
@@ -2355,7 +2403,7 @@
         <v>107</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="I17" s="42" t="s">
         <v>108</v>
@@ -2369,8 +2417,11 @@
       <c r="L17" s="9" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="M17" s="9" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
         <v>4</v>
       </c>
@@ -2394,7 +2445,7 @@
         <v>113</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="I18" s="42" t="s">
         <v>108</v>
@@ -2409,7 +2460,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
         <v>4</v>
       </c>
@@ -2433,7 +2484,7 @@
         <v>115</v>
       </c>
       <c r="H19" s="9" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="I19" s="42" t="s">
         <v>116</v>
@@ -2448,7 +2499,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="217.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" ht="217.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="s">
         <v>4</v>
       </c>
@@ -2472,7 +2523,7 @@
         <v>119</v>
       </c>
       <c r="H20" s="9" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="I20" s="42" t="s">
         <v>120</v>
@@ -2486,8 +2537,11 @@
       <c r="L20" s="9" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" ht="243.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M20" s="9" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="243.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
         <v>4</v>
       </c>
@@ -2511,7 +2565,7 @@
         <v>123</v>
       </c>
       <c r="H21" s="9" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I21" s="42" t="s">
         <v>124</v>
@@ -2525,8 +2579,11 @@
       <c r="L21" s="9" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" ht="215.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M21" s="9" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="215.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
         <v>4</v>
       </c>
@@ -2550,7 +2607,7 @@
         <v>127</v>
       </c>
       <c r="H22" s="9" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="I22" s="42" t="s">
         <v>128</v>
@@ -2565,7 +2622,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="E23" s="14"/>
     </row>
   </sheetData>
@@ -2578,17 +2635,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="13.6640625" customWidth="1"/>
-    <col min="3" max="3" width="19.6640625" style="9" customWidth="1"/>
-    <col min="4" max="4" width="48" customWidth="1"/>
-    <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="6" max="6" width="20.5546875" customWidth="1"/>
+    <col min="1" max="2" width="13.6640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19.6640625" style="9" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="48" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="18" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="20.5546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -2622,13 +2679,13 @@
         <v>20010</v>
       </c>
       <c r="D2" s="48" t="s">
+        <v>212</v>
+      </c>
+      <c r="E2" s="47" t="s">
         <v>214</v>
       </c>
-      <c r="E2" s="47" t="s">
-        <v>216</v>
-      </c>
       <c r="F2" s="47" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -2642,13 +2699,13 @@
         <v>20017</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E3" t="s">
         <v>133</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>134</v>
+        <v>217</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -2662,13 +2719,13 @@
         <v>20019</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E4" t="s">
         <v>133</v>
       </c>
       <c r="F4" s="38" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -2682,13 +2739,13 @@
         <v>20018</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E5" t="s">
         <v>133</v>
       </c>
-      <c r="F5" s="38" t="s">
-        <v>134</v>
+      <c r="F5" s="4" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -2702,13 +2759,13 @@
         <v>20018</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E6" t="s">
+        <v>134</v>
+      </c>
+      <c r="F6" t="s">
         <v>135</v>
-      </c>
-      <c r="F6" t="s">
-        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -2731,28 +2788,28 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="50" style="9" customWidth="1"/>
-    <col min="2" max="2" width="21.88671875" style="9" customWidth="1"/>
-    <col min="3" max="3" width="17.5546875" style="9" customWidth="1"/>
-    <col min="4" max="4" width="47.44140625" style="10" customWidth="1"/>
-    <col min="5" max="5" width="77.109375" style="34" customWidth="1"/>
+    <col min="1" max="1" width="50" style="9" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="21.88671875" style="9" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.5546875" style="9" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="47.44140625" style="10" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="77.109375" style="34" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="C1" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="D1" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="E1" s="32" t="s">
         <v>140</v>
-      </c>
-      <c r="E1" s="32" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -2760,16 +2817,16 @@
         <v>32</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C2" s="30" t="s">
         <v>33</v>
       </c>
       <c r="D2" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="E2" s="33" t="s">
         <v>143</v>
-      </c>
-      <c r="E2" s="33" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -2777,16 +2834,16 @@
         <v>32</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C3" s="30" t="s">
         <v>53</v>
       </c>
       <c r="D3" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="E3" s="33" t="s">
         <v>145</v>
-      </c>
-      <c r="E3" s="33" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -2794,16 +2851,16 @@
         <v>72</v>
       </c>
       <c r="B4" s="30" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C4" s="30" t="s">
         <v>73</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E4" s="33" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -2811,16 +2868,16 @@
         <v>72</v>
       </c>
       <c r="B5" s="31" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C5" s="30" t="s">
         <v>78</v>
       </c>
       <c r="D5" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="E5" s="33" t="s">
         <v>149</v>
-      </c>
-      <c r="E5" s="33" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -2828,16 +2885,16 @@
         <v>92</v>
       </c>
       <c r="B6" s="30" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C6" s="30" t="s">
         <v>93</v>
       </c>
       <c r="D6" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="E6" s="33" t="s">
         <v>152</v>
-      </c>
-      <c r="E6" s="33" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -2845,16 +2902,16 @@
         <v>92</v>
       </c>
       <c r="B7" s="31" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C7" s="31" t="s">
         <v>110</v>
       </c>
       <c r="D7" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="E7" s="34" t="s">
         <v>154</v>
-      </c>
-      <c r="E7" s="34" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -2862,16 +2919,16 @@
         <v>92</v>
       </c>
       <c r="B8" s="31" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C8" s="31" t="s">
         <v>117</v>
       </c>
       <c r="D8" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="E8" s="34" t="s">
         <v>156</v>
-      </c>
-      <c r="E8" s="34" t="s">
-        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -2889,32 +2946,32 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.109375" style="9" customWidth="1"/>
-    <col min="2" max="2" width="15.5546875" customWidth="1"/>
-    <col min="3" max="3" width="76.6640625" style="10" customWidth="1"/>
-    <col min="4" max="4" width="31.6640625" customWidth="1"/>
-    <col min="5" max="5" width="40.109375" style="9" customWidth="1"/>
-    <col min="6" max="6" width="29.44140625" customWidth="1"/>
+    <col min="1" max="1" width="10.109375" style="9" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.5546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="76.6640625" style="10" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="31.6640625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="40.109375" style="9" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="29.44140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:61" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="35" t="s">
+        <v>157</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C1" s="36" t="s">
         <v>158</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="C1" s="36" t="s">
+      <c r="D1" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="35" t="s">
         <v>160</v>
       </c>
-      <c r="E1" s="35" t="s">
+      <c r="F1" s="5" t="s">
         <v>161</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>162</v>
       </c>
       <c r="G1" s="7"/>
       <c r="H1" s="7"/>
@@ -2977,16 +3034,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C2" s="24" t="s">
+        <v>162</v>
+      </c>
+      <c r="D2" s="31" t="s">
         <v>163</v>
       </c>
-      <c r="D2" s="31" t="s">
+      <c r="E2" s="37" t="s">
         <v>164</v>
-      </c>
-      <c r="E2" s="37" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="3" spans="1:61" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -2994,16 +3051,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="31" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C3" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="D3" s="31" t="s">
         <v>166</v>
       </c>
-      <c r="D3" s="31" t="s">
+      <c r="E3" s="44" t="s">
         <v>167</v>
-      </c>
-      <c r="E3" s="44" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="4" spans="1:61" ht="76.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3011,16 +3068,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="31" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C4" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="D4" s="31" t="s">
         <v>169</v>
       </c>
-      <c r="D4" s="31" t="s">
+      <c r="E4" s="37" t="s">
         <v>170</v>
-      </c>
-      <c r="E4" s="37" t="s">
-        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -3030,30 +3087,30 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="41.88671875" customWidth="1"/>
-    <col min="2" max="2" width="40" customWidth="1"/>
-    <col min="3" max="3" width="19.44140625" customWidth="1"/>
+    <col min="1" max="1" width="41.88671875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="40" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19.44140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>182</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B2">
         <v>50</v>
@@ -3061,7 +3118,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>185</v>
+        <v>215</v>
       </c>
       <c r="B3">
         <v>99</v>
@@ -3069,7 +3126,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B4">
         <v>100</v>
@@ -3077,7 +3134,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B5">
         <v>100</v>
@@ -3085,7 +3142,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B6">
         <v>200</v>
@@ -3093,7 +3150,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B7">
         <v>300</v>
@@ -3101,7 +3158,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B8">
         <v>1180</v>
@@ -3109,32 +3166,32 @@
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
@@ -3144,12 +3201,12 @@
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
